--- a/data manipulation.xls.xlsx
+++ b/data manipulation.xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757292C3-B47B-4932-A59B-076813F583F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C8010D-D05D-4F5D-9CFE-4263C52C840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0574BFA7-090C-4153-8E05-C48718A32BD9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$13826</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="105">
   <si>
     <t>Employee ID</t>
   </si>
@@ -341,6 +341,9 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>Icon sets</t>
+  </si>
 </sst>
 </file>
 
@@ -350,7 +353,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +372,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -395,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,23 +442,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="80">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1347,10 +1456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7791F7-AE1A-4462-B6C5-C0AA1CA18036}">
-  <dimension ref="A1:Q13826"/>
+  <dimension ref="A1:R13826"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1363,17 +1472,18 @@
     <col min="6" max="6" width="13.1796875" customWidth="1"/>
     <col min="7" max="7" width="24.36328125" customWidth="1"/>
     <col min="8" max="8" width="10.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.08984375" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" customWidth="1"/>
-    <col min="13" max="13" width="10.1796875" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" customWidth="1"/>
-    <col min="16" max="17" width="24.26953125" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
+    <col min="14" max="14" width="10.1796875" customWidth="1"/>
+    <col min="15" max="15" width="10.26953125" customWidth="1"/>
+    <col min="16" max="16" width="11.7265625" customWidth="1"/>
+    <col min="17" max="18" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1398,33 +1508,36 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>102</v>
       </c>
@@ -1449,33 +1562,37 @@
       <c r="H2" s="5">
         <v>55000</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="13">
+        <f>IF(J2="High",3,IF(J2="Medium",2,IF(J2="Low",1,"")))</f>
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2">
+      <c r="M2" s="2">
         <v>80000</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>4500</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>1800</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>45693</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>109</v>
       </c>
@@ -1500,33 +1617,37 @@
       <c r="H3" s="5">
         <v>52000</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:I26" si="0">IF(J3="High",3,IF(J3="Medium",2,IF(J3="Low",1,"")))</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>150000</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>7000</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>3000</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>45675</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>117</v>
       </c>
@@ -1551,33 +1672,37 @@
       <c r="H4" s="5">
         <v>52000</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="2">
+      <c r="M4" s="2">
         <v>135000</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>6800</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>2800</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>45693</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>120</v>
       </c>
@@ -1602,33 +1727,37 @@
       <c r="H5" s="5">
         <v>50000</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="2">
+      <c r="M5" s="2">
         <v>78000</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>4700</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>1800</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>45687</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>107</v>
       </c>
@@ -1653,33 +1782,37 @@
       <c r="H6" s="5">
         <v>27000</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="2">
+      <c r="M6" s="2">
         <v>95000</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>4000</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>1700</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>45682</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R6" s="2"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>112</v>
       </c>
@@ -1704,33 +1837,37 @@
       <c r="H7" s="5">
         <v>25000</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>91000</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>5200</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>1900</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>45677</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7" s="2"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>116</v>
       </c>
@@ -1755,33 +1892,37 @@
       <c r="H8" s="5">
         <v>20000</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <v>60000</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>3700</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>45685</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>103</v>
       </c>
@@ -1806,33 +1947,37 @@
       <c r="H9" s="5">
         <v>20000</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <v>67000</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>3900</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45682</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>104</v>
       </c>
@@ -1857,33 +2002,37 @@
       <c r="H10" s="5">
         <v>45000</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <v>70000</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>6000</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>2500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>45665</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>111</v>
       </c>
@@ -1908,33 +2057,37 @@
       <c r="H11" s="5">
         <v>45000</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <v>110000</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>5400</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>2000</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>45669</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>115</v>
       </c>
@@ -1959,33 +2112,37 @@
       <c r="H12" s="5">
         <v>44000</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <v>88000</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>4000</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>45674</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>101</v>
       </c>
@@ -2010,33 +2167,37 @@
       <c r="H13" s="5">
         <v>42000</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <v>120000</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>5000</v>
       </c>
-      <c r="N13" s="2">
+      <c r="O13" s="2">
         <v>2000</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>45667</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>106</v>
       </c>
@@ -2061,33 +2222,37 @@
       <c r="H14" s="5">
         <v>41000</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <v>80000</v>
       </c>
-      <c r="M14" s="2">
+      <c r="N14" s="2">
         <v>4800</v>
       </c>
-      <c r="N14" s="2">
+      <c r="O14" s="2">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>45687</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>108</v>
       </c>
@@ -2112,33 +2277,37 @@
       <c r="H15" s="5">
         <v>40000</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <v>64000</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>3500</v>
       </c>
-      <c r="N15" s="2">
+      <c r="O15" s="2">
         <v>1300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>45689</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>113</v>
       </c>
@@ -2163,33 +2332,37 @@
       <c r="H16" s="5">
         <v>39000</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>100000</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>6100</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>2400</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>45679</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>119</v>
       </c>
@@ -2214,33 +2387,37 @@
       <c r="H17" s="5">
         <v>38000</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <v>88000</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>4500</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45698</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="R17" s="2"/>
+    </row>
+    <row r="18" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>122</v>
       </c>
@@ -2265,33 +2442,37 @@
       <c r="H18" s="5">
         <v>36000</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>87000</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>4100</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45672</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18" s="2"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>125</v>
       </c>
@@ -2316,33 +2497,37 @@
       <c r="H19" s="5">
         <v>35000</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <v>88000</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>4300</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>1900</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P19" s="3">
         <v>45698</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19" s="2"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>103</v>
       </c>
@@ -2367,33 +2552,37 @@
       <c r="H20" s="5">
         <v>33000</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>80000</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="2">
         <v>4800</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>45687</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" ht="29" x14ac:dyDescent="0.35">
+      <c r="R20" s="2"/>
+    </row>
+    <row r="21" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>105</v>
       </c>
@@ -2418,33 +2607,37 @@
       <c r="H21" s="5">
         <v>33000</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <v>87000</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="2">
         <v>4100</v>
       </c>
-      <c r="N21" s="2">
+      <c r="O21" s="2">
         <v>1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>45672</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R21" s="2"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>110</v>
       </c>
@@ -2469,33 +2662,37 @@
       <c r="H22" s="5">
         <v>32000</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>67000</v>
       </c>
-      <c r="M22" s="2">
+      <c r="N22" s="2">
         <v>3000</v>
       </c>
-      <c r="N22" s="2">
+      <c r="O22" s="2">
         <v>1200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45672</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>114</v>
       </c>
@@ -2520,33 +2717,37 @@
       <c r="H23" s="5">
         <v>31000</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <v>78000</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="2">
         <v>4200</v>
       </c>
-      <c r="N23" s="2">
+      <c r="O23" s="2">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>45698</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R23" s="2"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>118</v>
       </c>
@@ -2571,33 +2772,37 @@
       <c r="H24" s="5">
         <v>30000</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <v>72000</v>
       </c>
-      <c r="M24" s="2">
+      <c r="N24" s="2">
         <v>3400</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O24" s="2">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45686</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R24" s="2"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>123</v>
       </c>
@@ -2622,33 +2827,37 @@
       <c r="H25" s="5">
         <v>30000</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <v>74000</v>
       </c>
-      <c r="M25" s="2">
+      <c r="N25" s="2">
         <v>3300</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O25" s="2">
         <v>1400</v>
       </c>
-      <c r="O25" s="3">
+      <c r="P25" s="3">
         <v>45677</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R25" s="2"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>103</v>
       </c>
@@ -2673,48 +2882,52 @@
       <c r="H26" s="5">
         <v>29000</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <v>75000</v>
       </c>
-      <c r="M26" s="2">
+      <c r="N26" s="2">
         <v>3500</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O26" s="2">
         <v>1500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>45689</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R26" s="2"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="H32" s="10"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.35">
@@ -44100,33 +44313,32 @@
       <c r="H13826" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="F1:F31" xr:uid="{8E7791F7-AE1A-4462-B6C5-C0AA1CA18036}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P30">
-    <sortCondition ref="P2:P30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q30">
+    <sortCondition ref="Q2:Q30"/>
   </sortState>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H8">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="lessThan">
-      <formula>30000</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M26">
-    <cfRule type="top10" dxfId="9" priority="15" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H26">
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="lessThan">
-      <formula>30000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="lessThan">
       <formula>30000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N26">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="top10" dxfId="19" priority="16" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H26">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
+      <formula>30000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="lessThan">
+      <formula>30000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O26">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -44139,14 +44351,14 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L26">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="M2:M26">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="lessThan">
       <formula>50000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
       <formula>100000</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44157,8 +44369,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="iconSet" priority="11">
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="iconSet" priority="12">
       <iconSet iconSet="3Flags">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -44166,21 +44378,13 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:P26">
-    <cfRule type="expression" priority="7">
-      <formula>AND($K1048570="Completed", $J1048570&gt;2000)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>AND(G2&gt;=TODAY(), G2&lt;=TODAY()+7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="expression" dxfId="4" priority="4">
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>$J2="pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -44192,7 +44396,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B26 J1:Q26">
+    <cfRule type="expression" dxfId="12" priority="19">
+      <formula>AND(G2&gt;=TODAY(), G2&lt;=TODAY()+7)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20">
+      <formula>AND($L1048570="Completed", $K1048570&gt;2000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:H26 I1">
+    <cfRule type="expression" dxfId="11" priority="23">
+      <formula>AND(J2&gt;=TODAY(), J2&lt;=TODAY()+7)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="24">
+      <formula>AND($L1048570="Completed", $K1048570&gt;2000)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{35044B9B-2E6B-4B69-BB05-F33148A9DE4E}">
@@ -44202,11 +44431,11 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{62D55467-911F-4C36-B47A-B4ABB2E11F73}">
       <formula1>AND(ISNUMBER(SEARCH("@",A2)),ISNUMBER(SEARCH(".com",A2)))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{258A86AC-E8EC-417D-B963-5EC68EDF2F87}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576" xr:uid="{258A86AC-E8EC-417D-B963-5EC68EDF2F87}">
       <formula1>"High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{78BC4AC7-6247-468A-9C9A-340F17D6E67E}">
-      <formula1>NOT(ISBLANK(A2))</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{78BC4AC7-6247-468A-9C9A-340F17D6E67E}">
+      <formula1>NOT(ISBLANK(B2))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44225,7 +44454,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N2:N26</xm:sqref>
+          <xm:sqref>O2:O26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/data manipulation.xls.xlsx
+++ b/data manipulation.xls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C8010D-D05D-4F5D-9CFE-4263C52C840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E11DD9-B1A0-431A-AC57-152DED702234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0574BFA7-090C-4153-8E05-C48718A32BD9}"/>
   </bookViews>
@@ -1459,7 +1459,7 @@
   <dimension ref="A1:R13826"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
